--- a/analisa/kwitansi.xlsx
+++ b/analisa/kwitansi.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="pembayaran" sheetId="1" r:id="rId1"/>
-    <sheet name="honorarium" sheetId="2" r:id="rId2"/>
+    <sheet name="transaksi" sheetId="1" r:id="rId1"/>
+    <sheet name="pembayaran" sheetId="4" r:id="rId2"/>
+    <sheet name="honorarium" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,16 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
-  <si>
-    <t>SMK</t>
-  </si>
-  <si>
-    <t>NURUL GINA ABIDIN</t>
-  </si>
-  <si>
-    <t>BUKTI PEMBAYARAN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>NIPD</t>
   </si>
@@ -102,9 +94,6 @@
     <t>&lt;&lt;nama_role_bendahara&gt;&gt;</t>
   </si>
   <si>
-    <t>BUKTI HONORARIUM</t>
-  </si>
-  <si>
     <t>NIK</t>
   </si>
   <si>
@@ -136,13 +125,40 @@
   </si>
   <si>
     <t>Enam Ratus Lima Puluh Ribu Rupah</t>
+  </si>
+  <si>
+    <t>YAYASAN NURUL GINA SINDANGSARI</t>
+  </si>
+  <si>
+    <t>SMK NURUL GINA ABIDIN</t>
+  </si>
+  <si>
+    <t>Alamat : Jl. Raya Cisalak-Subang KM. 18 No. 09, Kec. Kasomalang - Subang 41283</t>
+  </si>
+  <si>
+    <t>KWITANSI TRANSAKSI</t>
+  </si>
+  <si>
+    <t>KWITANSI HONORARIUM</t>
+  </si>
+  <si>
+    <t>No. Transaksi</t>
+  </si>
+  <si>
+    <t>No. Pembayaran</t>
+  </si>
+  <si>
+    <t>KWITANSI PEMBAYARAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,15 +175,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16.5"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -214,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -228,26 +274,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -271,15 +346,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -303,8 +378,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="0"/>
-          <a:ext cx="581025" cy="581025"/>
+          <a:off x="266700" y="38100"/>
+          <a:ext cx="657225" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -321,15 +396,65 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:biLevel thresh="50000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="38100"/>
+          <a:ext cx="657225" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -353,8 +478,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="0"/>
-          <a:ext cx="581025" cy="581025"/>
+          <a:off x="276225" y="38100"/>
+          <a:ext cx="657225" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -629,274 +754,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
+      <c r="C1" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7">
-        <v>200000</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7">
+    </row>
+    <row r="4" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="17">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="17">
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="17">
         <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3">
-        <f>SUM(H2:H10)</f>
-        <v>1760000</v>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="17">
+        <v>150000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4" t="s">
-        <v>21</v>
+      <c r="B12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="17">
+        <v>200000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="17">
+        <v>700000</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="17">
+        <v>60000</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="17">
+        <v>100000</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="17">
+        <v>100000</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="B17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="21">
+        <f>SUM(H8:H16)</f>
+        <v>1760000</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="19" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -917,6 +1035,16 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -928,284 +1056,577 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="17">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="17">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="17">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="17">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="17">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="17">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="21">
+        <f>SUM(H8:H16)</f>
+        <v>1760000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G18:H19"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="2.7109375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
+      <c r="C1" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="7">
-        <v>20000</v>
-      </c>
-      <c r="H2" s="7">
-        <v>20</v>
-      </c>
-      <c r="I2" s="7">
-        <f>G2*H2</f>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="7">
+    </row>
+    <row r="4" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="17">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="13">
+        <v>20</v>
+      </c>
+      <c r="I8" s="17">
+        <f>G8*H8</f>
+        <v>400000</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="17">
         <v>150000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="7">
-        <f t="shared" ref="I3:I4" si="0">G3*H3</f>
+      <c r="I9" s="17">
+        <f t="shared" ref="I9:I10" si="0">G9*H9</f>
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="17">
         <v>100000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H10" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I10" s="17">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="3">
-        <f>SUM(I2:I4)</f>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="18">
+        <f>SUM(I8:I10)</f>
         <v>650000</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="B18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="G18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1229,6 +1650,17 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
+    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0" footer="0"/>
